--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2775.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2775.xlsx
@@ -354,7 +354,7 @@
         <v>2.427568462659373</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.370973068808516</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2775.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2775.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166866377773332</v>
+        <v>1.365740299224854</v>
       </c>
       <c r="B1">
-        <v>2.427568462659373</v>
+        <v>1.674098253250122</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.325392246246338</v>
       </c>
       <c r="D1">
-        <v>2.370973068808516</v>
+        <v>4.989462852478027</v>
       </c>
       <c r="E1">
-        <v>1.231787721037032</v>
+        <v>1.871124267578125</v>
       </c>
     </row>
   </sheetData>
